--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H2">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I2">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J2">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>548.3671443771641</v>
+        <v>1180.470098107993</v>
       </c>
       <c r="R2">
-        <v>4935.304299394477</v>
+        <v>10624.23088297194</v>
       </c>
       <c r="S2">
-        <v>0.01706477125186208</v>
+        <v>0.03967626618014953</v>
       </c>
       <c r="T2">
-        <v>0.01706477125186208</v>
+        <v>0.03967626618014952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H3">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I3">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J3">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>69.470190928427</v>
+        <v>107.8354581312565</v>
       </c>
       <c r="R3">
-        <v>625.231718355843</v>
+        <v>970.5191231813089</v>
       </c>
       <c r="S3">
-        <v>0.002161859858258421</v>
+        <v>0.003624410603310931</v>
       </c>
       <c r="T3">
-        <v>0.002161859858258421</v>
+        <v>0.003624410603310928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H4">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I4">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J4">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>172.190626289024</v>
+        <v>304.1166636809556</v>
       </c>
       <c r="R4">
-        <v>1549.715636601216</v>
+        <v>2737.049973128601</v>
       </c>
       <c r="S4">
-        <v>0.005358442203306134</v>
+        <v>0.01022153269054745</v>
       </c>
       <c r="T4">
-        <v>0.005358442203306135</v>
+        <v>0.01022153269054745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H5">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I5">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J5">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>399.24732110758</v>
+        <v>214.5661357065099</v>
       </c>
       <c r="R5">
-        <v>3593.22588996822</v>
+        <v>1931.095221358589</v>
       </c>
       <c r="S5">
-        <v>0.01242427500895931</v>
+        <v>0.007211688908666249</v>
       </c>
       <c r="T5">
-        <v>0.01242427500895931</v>
+        <v>0.007211688908666245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H6">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I6">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J6">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>346.6686165988841</v>
+        <v>689.3048011522415</v>
       </c>
       <c r="R6">
-        <v>3120.017549389956</v>
+        <v>6203.743210370173</v>
       </c>
       <c r="S6">
-        <v>0.01078806544687981</v>
+        <v>0.02316792336680551</v>
       </c>
       <c r="T6">
-        <v>0.01078806544687981</v>
+        <v>0.02316792336680551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H7">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I7">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J7">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>193.74077265129</v>
+        <v>229.2122691318648</v>
       </c>
       <c r="R7">
-        <v>1743.66695386161</v>
+        <v>2062.910422186783</v>
       </c>
       <c r="S7">
-        <v>0.006029066477366</v>
+        <v>0.007703953718444772</v>
       </c>
       <c r="T7">
-        <v>0.006029066477366</v>
+        <v>0.007703953718444769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>22.297341</v>
       </c>
       <c r="H8">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I8">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J8">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>1006.303110188068</v>
+        <v>1395.56247854034</v>
       </c>
       <c r="R8">
-        <v>9056.727991692613</v>
+        <v>12560.06230686306</v>
       </c>
       <c r="S8">
-        <v>0.0313153925458118</v>
+        <v>0.04690564247103043</v>
       </c>
       <c r="T8">
-        <v>0.0313153925458118</v>
+        <v>0.04690564247103042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>22.297341</v>
       </c>
       <c r="H9">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I9">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J9">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>127.484058652049</v>
@@ -1013,10 +1013,10 @@
         <v>1147.356527868441</v>
       </c>
       <c r="S9">
-        <v>0.00396720759342193</v>
+        <v>0.004284811155243476</v>
       </c>
       <c r="T9">
-        <v>0.003967207593421929</v>
+        <v>0.004284811155243475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>22.297341</v>
       </c>
       <c r="H10">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I10">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J10">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>315.985311221888</v>
+        <v>359.529483730461</v>
       </c>
       <c r="R10">
-        <v>2843.867800996991</v>
+        <v>3235.765353574149</v>
       </c>
       <c r="S10">
-        <v>0.009833224164212924</v>
+        <v>0.01208398884390591</v>
       </c>
       <c r="T10">
-        <v>0.009833224164212924</v>
+        <v>0.01208398884390591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>22.297341</v>
       </c>
       <c r="H11">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I11">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J11">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>732.6548008654599</v>
+        <v>253.662035690129</v>
       </c>
       <c r="R11">
-        <v>6593.893207789139</v>
+        <v>2282.958321211162</v>
       </c>
       <c r="S11">
-        <v>0.02279966389588875</v>
+        <v>0.008525724170371514</v>
       </c>
       <c r="T11">
-        <v>0.02279966389588875</v>
+        <v>0.00852572417037151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>22.297341</v>
       </c>
       <c r="H12">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I12">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J12">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>636.1681414817081</v>
+        <v>814.9024005839531</v>
       </c>
       <c r="R12">
-        <v>5725.513273335372</v>
+        <v>7334.121605255578</v>
       </c>
       <c r="S12">
-        <v>0.01979707194973891</v>
+        <v>0.02738932956305505</v>
       </c>
       <c r="T12">
-        <v>0.01979707194973891</v>
+        <v>0.02738932956305505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>22.297341</v>
       </c>
       <c r="H13">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I13">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J13">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>355.53177116523</v>
+        <v>270.9768277351631</v>
       </c>
       <c r="R13">
-        <v>3199.78594048707</v>
+        <v>2438.791449616468</v>
       </c>
       <c r="S13">
-        <v>0.01106388012103644</v>
+        <v>0.009107684102379767</v>
       </c>
       <c r="T13">
-        <v>0.01106388012103644</v>
+        <v>0.009107684102379764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H14">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I14">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J14">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>2481.629915030544</v>
+        <v>3218.403618432607</v>
       </c>
       <c r="R14">
-        <v>22334.6692352749</v>
+        <v>28965.63256589346</v>
       </c>
       <c r="S14">
-        <v>0.07722644813061072</v>
+        <v>0.1081723618791796</v>
       </c>
       <c r="T14">
-        <v>0.07722644813061072</v>
+        <v>0.1081723618791796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H15">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I15">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J15">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>314.3866400068138</v>
+        <v>293.9998473499867</v>
       </c>
       <c r="R15">
-        <v>2829.479760061324</v>
+        <v>2645.998626149881</v>
       </c>
       <c r="S15">
-        <v>0.009783474723766119</v>
+        <v>0.009881500784371642</v>
       </c>
       <c r="T15">
-        <v>0.009783474723766119</v>
+        <v>0.009881500784371635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H16">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I16">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J16">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>779.2469218264887</v>
+        <v>829.1359284620343</v>
       </c>
       <c r="R16">
-        <v>7013.222296438398</v>
+        <v>7462.223356158309</v>
       </c>
       <c r="S16">
-        <v>0.02424957550071712</v>
+        <v>0.02786772646754121</v>
       </c>
       <c r="T16">
-        <v>0.02424957550071712</v>
+        <v>0.0278677264675412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H17">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I17">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J17">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>1806.789676798944</v>
+        <v>584.9876491219335</v>
       </c>
       <c r="R17">
-        <v>16261.1070911905</v>
+        <v>5264.888842097401</v>
       </c>
       <c r="S17">
-        <v>0.05622592974606336</v>
+        <v>0.01966176501705714</v>
       </c>
       <c r="T17">
-        <v>0.05622592974606336</v>
+        <v>0.01966176501705713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H18">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I18">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J18">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>1568.845286183544</v>
+        <v>1879.303058829695</v>
       </c>
       <c r="R18">
-        <v>14119.6075756519</v>
+        <v>16913.72752946726</v>
       </c>
       <c r="S18">
-        <v>0.04882128007266361</v>
+        <v>0.06316443636717586</v>
       </c>
       <c r="T18">
-        <v>0.04882128007266361</v>
+        <v>0.06316443636717585</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H19">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I19">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J19">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>876.77188923975</v>
+        <v>624.9184943739718</v>
       </c>
       <c r="R19">
-        <v>7890.947003157749</v>
+        <v>5624.266449365748</v>
       </c>
       <c r="S19">
-        <v>0.02728447880832293</v>
+        <v>0.02100386326042433</v>
       </c>
       <c r="T19">
-        <v>0.02728447880832292</v>
+        <v>0.02100386326042432</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H20">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I20">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J20">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>460.13935546376</v>
+        <v>536.9517838566067</v>
       </c>
       <c r="R20">
-        <v>4141.254199173841</v>
+        <v>4832.566054709459</v>
       </c>
       <c r="S20">
-        <v>0.01431918911532679</v>
+        <v>0.01804725247708211</v>
       </c>
       <c r="T20">
-        <v>0.01431918911532679</v>
+        <v>0.0180472524770821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H21">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I21">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J21">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>58.29300534418</v>
+        <v>49.05032469638677</v>
       </c>
       <c r="R21">
-        <v>524.63704809762</v>
+        <v>441.4529222674809</v>
       </c>
       <c r="S21">
-        <v>0.001814034287032005</v>
+        <v>0.001648609093949761</v>
       </c>
       <c r="T21">
-        <v>0.001814034287032005</v>
+        <v>0.00164860909394976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H22">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I22">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J22">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>144.48656271616</v>
+        <v>138.3313184516343</v>
       </c>
       <c r="R22">
-        <v>1300.37906444544</v>
+        <v>1244.981866064709</v>
       </c>
       <c r="S22">
-        <v>0.004496312674822193</v>
+        <v>0.004649393678615627</v>
       </c>
       <c r="T22">
-        <v>0.004496312674822194</v>
+        <v>0.004649393678615625</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H23">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I23">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J23">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>335.0116922372</v>
+        <v>97.59812595633345</v>
       </c>
       <c r="R23">
-        <v>3015.1052301348</v>
+        <v>878.3831336070009</v>
       </c>
       <c r="S23">
-        <v>0.01042531076733325</v>
+        <v>0.003280328091608292</v>
       </c>
       <c r="T23">
-        <v>0.01042531076733326</v>
+        <v>0.00328032809160829</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H24">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I24">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J24">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>290.89247128856</v>
+        <v>313.5390241504952</v>
       </c>
       <c r="R24">
-        <v>2618.03224159704</v>
+        <v>2821.851217354456</v>
       </c>
       <c r="S24">
-        <v>0.009052353942660563</v>
+        <v>0.01053822354331361</v>
       </c>
       <c r="T24">
-        <v>0.009052353942660565</v>
+        <v>0.0105382235433136</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H25">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I25">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J25">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>162.5694667686</v>
+        <v>104.2601053507719</v>
       </c>
       <c r="R25">
-        <v>1463.1252009174</v>
+        <v>938.3409481569469</v>
       </c>
       <c r="S25">
-        <v>0.005059038987637206</v>
+        <v>0.003504240978655627</v>
       </c>
       <c r="T25">
-        <v>0.005059038987637206</v>
+        <v>0.003504240978655625</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H26">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I26">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J26">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>2698.517541045952</v>
+        <v>3951.74094716666</v>
       </c>
       <c r="R26">
-        <v>24286.65786941358</v>
+        <v>35565.66852449994</v>
       </c>
       <c r="S26">
-        <v>0.08397582719765184</v>
+        <v>0.1328202433471863</v>
       </c>
       <c r="T26">
-        <v>0.08397582719765186</v>
+        <v>0.1328202433471863</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H27">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I27">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J27">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>341.8631672637797</v>
+        <v>360.9899108302343</v>
       </c>
       <c r="R27">
-        <v>3076.768505374017</v>
+        <v>3248.909197472109</v>
       </c>
       <c r="S27">
-        <v>0.01063852349399875</v>
+        <v>0.01213307462290208</v>
       </c>
       <c r="T27">
-        <v>0.01063852349399875</v>
+        <v>0.01213307462290207</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H28">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I28">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J28">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>847.3509585852015</v>
+        <v>1018.060749281089</v>
       </c>
       <c r="R28">
-        <v>7626.158627266815</v>
+        <v>9162.5467435298</v>
       </c>
       <c r="S28">
-        <v>0.02636892167331804</v>
+        <v>0.03421759631250201</v>
       </c>
       <c r="T28">
-        <v>0.02636892167331805</v>
+        <v>0.034217596312502</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H29">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I29">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J29">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>1964.698122911969</v>
+        <v>718.2814589761543</v>
       </c>
       <c r="R29">
-        <v>17682.28310620772</v>
+        <v>6464.533130785389</v>
       </c>
       <c r="S29">
-        <v>0.06113992129221326</v>
+        <v>0.02414184518886212</v>
       </c>
       <c r="T29">
-        <v>0.06113992129221327</v>
+        <v>0.02414184518886211</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H30">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I30">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J30">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>1705.958047294673</v>
+        <v>2307.516312490864</v>
       </c>
       <c r="R30">
-        <v>15353.62242565206</v>
+        <v>20767.64681241777</v>
       </c>
       <c r="S30">
-        <v>0.05308812561230688</v>
+        <v>0.07755692547923307</v>
       </c>
       <c r="T30">
-        <v>0.05308812561230689</v>
+        <v>0.07755692547923307</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H31">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I31">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J31">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>953.3993397965399</v>
+        <v>767.3108458851536</v>
       </c>
       <c r="R31">
-        <v>8580.594058168859</v>
+        <v>6905.797612966383</v>
       </c>
       <c r="S31">
-        <v>0.02966906717903977</v>
+        <v>0.02578975055196182</v>
       </c>
       <c r="T31">
-        <v>0.02966906717903978</v>
+        <v>0.02578975055196182</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H32">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I32">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J32">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N32">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q32">
-        <v>2992.726428422814</v>
+        <v>2603.286718303853</v>
       </c>
       <c r="R32">
-        <v>26934.53785580533</v>
+        <v>23429.58046473468</v>
       </c>
       <c r="S32">
-        <v>0.09313138550348983</v>
+        <v>0.08749793573273758</v>
       </c>
       <c r="T32">
-        <v>0.09313138550348983</v>
+        <v>0.08749793573273756</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H33">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I33">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J33">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q33">
-        <v>379.1351807104004</v>
+        <v>237.8091714184442</v>
       </c>
       <c r="R33">
-        <v>3412.216626393603</v>
+        <v>2140.282542765998</v>
       </c>
       <c r="S33">
-        <v>0.01179840039414623</v>
+        <v>0.007992900455845194</v>
       </c>
       <c r="T33">
-        <v>0.01179840039414623</v>
+        <v>0.007992900455845189</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H34">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I34">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J34">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N34">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O34">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P34">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q34">
-        <v>939.7343427771162</v>
+        <v>670.6674507422246</v>
       </c>
       <c r="R34">
-        <v>8457.609084994046</v>
+        <v>6036.007056680021</v>
       </c>
       <c r="S34">
-        <v>0.02924382279544583</v>
+        <v>0.0225415115017818</v>
       </c>
       <c r="T34">
-        <v>0.02924382279544583</v>
+        <v>0.0225415115017818</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H35">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I35">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J35">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N35">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q35">
-        <v>2178.901529034462</v>
+        <v>473.1819740100176</v>
       </c>
       <c r="R35">
-        <v>19610.11376131016</v>
+        <v>4258.637766090158</v>
       </c>
       <c r="S35">
-        <v>0.06780576946406498</v>
+        <v>0.01590391318048663</v>
       </c>
       <c r="T35">
-        <v>0.06780576946406498</v>
+        <v>0.01590391318048662</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H36">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I36">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J36">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N36">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q36">
-        <v>1891.952027830974</v>
+        <v>1520.121548676912</v>
       </c>
       <c r="R36">
-        <v>17027.56825047877</v>
+        <v>13681.0939380922</v>
       </c>
       <c r="S36">
-        <v>0.05887611777161147</v>
+        <v>0.05109214311158999</v>
       </c>
       <c r="T36">
-        <v>0.05887611777161147</v>
+        <v>0.05109214311158999</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H37">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I37">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J37">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N37">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q37">
-        <v>1057.34476713612</v>
+        <v>505.4810425606251</v>
       </c>
       <c r="R37">
-        <v>9516.102904225079</v>
+        <v>4549.329383045626</v>
       </c>
       <c r="S37">
-        <v>0.03290377034901484</v>
+        <v>0.01698950310202614</v>
       </c>
       <c r="T37">
-        <v>0.03290377034901484</v>
+        <v>0.01698950310202614</v>
       </c>
     </row>
   </sheetData>
